--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D6A44-6213-409A-8F5F-7EF6920BAD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E20F18-286B-42F1-BD09-8250E60A6E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="162">
   <si>
     <t>movie_id</t>
   </si>
@@ -531,6 +531,21 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>budget mln</t>
+  </si>
+  <si>
+    <t>revenue(mln)</t>
+  </si>
+  <si>
+    <t>Budget INR</t>
+  </si>
+  <si>
+    <t>revenue INR</t>
+  </si>
+  <si>
+    <t>budget USD</t>
   </si>
 </sst>
 </file>
@@ -578,15 +593,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -685,6 +710,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -724,9 +755,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:K40" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:K40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:P40" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:P40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
     <tableColumn id="8" xr3:uid="{AEC53FD7-BF8A-4895-B8F6-DCBA25100657}" name="title"/>
     <tableColumn id="3" xr3:uid="{A73DC6E7-A5B7-4D92-B13E-587CFA363BFA}" name="industry"/>
@@ -734,25 +765,38 @@
     <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="10">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="8">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="13">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="12">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="11">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="2">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="1">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -766,7 +810,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -778,7 +822,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -789,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1062,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,9 +1123,14 @@
     <col min="7" max="7" width="7.77734375" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1164,23 @@
       <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1154,8 +1218,25 @@
         <f t="array" ref="K2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>12500</v>
+      </c>
+      <c r="N2" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1000</v>
+      </c>
+      <c r="O2" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>12500</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1193,8 +1274,25 @@
         <f t="array" ref="K3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>954.8</v>
+      </c>
+      <c r="N3" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>16000</v>
+      </c>
+      <c r="O3" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>76384</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1232,8 +1330,25 @@
         <f t="array" ref="K4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>165</v>
+      </c>
+      <c r="M4">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="N4" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>13200</v>
+      </c>
+      <c r="O4" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>51584</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1271,8 +1386,25 @@
         <f t="array" ref="K5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>180</v>
+      </c>
+      <c r="M5">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>854</v>
+      </c>
+      <c r="N5" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>14400</v>
+      </c>
+      <c r="O5" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>68320</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1310,8 +1442,25 @@
         <f t="array" ref="K6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>250</v>
+      </c>
+      <c r="M6">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>670</v>
+      </c>
+      <c r="N6" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>20000</v>
+      </c>
+      <c r="O6" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>53600</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1349,8 +1498,25 @@
         <f t="array" ref="K7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="O7" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1388,8 +1554,25 @@
         <f t="array" ref="K8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>400</v>
+      </c>
+      <c r="M8">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1427,8 +1610,25 @@
         <f t="array" ref="K9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>550</v>
+      </c>
+      <c r="M9">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>4000</v>
+      </c>
+      <c r="N9" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>550</v>
+      </c>
+      <c r="O9" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>4000</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1466,8 +1666,25 @@
         <f t="array" ref="K10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>390</v>
+      </c>
+      <c r="M10">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>1360</v>
+      </c>
+      <c r="N10" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>390</v>
+      </c>
+      <c r="O10" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>1360</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1505,8 +1722,25 @@
         <f t="array" ref="K11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>1400</v>
+      </c>
+      <c r="M11">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>3500</v>
+      </c>
+      <c r="N11" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1400</v>
+      </c>
+      <c r="O11" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>3500</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1544,8 +1778,25 @@
         <f t="array" ref="K12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>73.3</v>
+      </c>
+      <c r="N12" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>2000</v>
+      </c>
+      <c r="O12" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>5864</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1583,8 +1834,25 @@
         <f t="array" ref="K13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="str">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1622,8 +1890,25 @@
         <f t="array" ref="K14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>165</v>
+      </c>
+      <c r="M14">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>701.8</v>
+      </c>
+      <c r="N14" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>13200</v>
+      </c>
+      <c r="O14" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>56144</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>115</v>
       </c>
@@ -1661,8 +1946,25 @@
         <f t="array" ref="K15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>307.10000000000002</v>
+      </c>
+      <c r="N15" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>4400</v>
+      </c>
+      <c r="O15" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>24568</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>116</v>
       </c>
@@ -1700,8 +2002,25 @@
         <f t="array" ref="K16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>103</v>
+      </c>
+      <c r="M16">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>460.5</v>
+      </c>
+      <c r="N16" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>8240</v>
+      </c>
+      <c r="O16" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>36840</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>117</v>
       </c>
@@ -1739,8 +2058,25 @@
         <f t="array" ref="K17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>200</v>
+      </c>
+      <c r="M17">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>2202</v>
+      </c>
+      <c r="N17" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>16000</v>
+      </c>
+      <c r="O17" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>176160</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>118</v>
       </c>
@@ -1778,8 +2114,25 @@
         <f t="array" ref="K18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>3.18</v>
+      </c>
+      <c r="M18">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>3.3</v>
+      </c>
+      <c r="N18" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>254.4</v>
+      </c>
+      <c r="O18" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>264</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>119</v>
       </c>
@@ -1817,8 +2170,25 @@
         <f t="array" ref="K19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>237</v>
+      </c>
+      <c r="M19">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>2847</v>
+      </c>
+      <c r="N19" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>18960</v>
+      </c>
+      <c r="O19" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>227760</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>120</v>
       </c>
@@ -1856,8 +2226,25 @@
         <f t="array" ref="K20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>7.2</v>
+      </c>
+      <c r="M20">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>291</v>
+      </c>
+      <c r="N20" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>576</v>
+      </c>
+      <c r="O20" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>23280</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>121</v>
       </c>
@@ -1895,8 +2282,25 @@
         <f t="array" ref="K21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>185</v>
+      </c>
+      <c r="M21">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>1006</v>
+      </c>
+      <c r="N21" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>14800</v>
+      </c>
+      <c r="O21" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>80480</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>122</v>
       </c>
@@ -1934,8 +2338,25 @@
         <f t="array" ref="K22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>322.2</v>
+      </c>
+      <c r="N22" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1760</v>
+      </c>
+      <c r="O22" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>25776</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>123</v>
       </c>
@@ -1973,8 +2394,25 @@
         <f t="array" ref="K23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>63</v>
+      </c>
+      <c r="M23">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>1046</v>
+      </c>
+      <c r="N23" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>5040</v>
+      </c>
+      <c r="O23" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>83680</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>124</v>
       </c>
@@ -2012,8 +2450,25 @@
         <f t="array" ref="K24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>15.5</v>
+      </c>
+      <c r="M24">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>263.10000000000002</v>
+      </c>
+      <c r="N24" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1240</v>
+      </c>
+      <c r="O24" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>21048</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>125</v>
       </c>
@@ -2051,8 +2506,25 @@
         <f t="array" ref="K25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>400</v>
+      </c>
+      <c r="M25">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>2798</v>
+      </c>
+      <c r="N25" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>32000</v>
+      </c>
+      <c r="O25" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>223840</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>126</v>
       </c>
@@ -2090,8 +2562,25 @@
         <f t="array" ref="K26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>400</v>
+      </c>
+      <c r="M26">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>2048</v>
+      </c>
+      <c r="N26" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>32000</v>
+      </c>
+      <c r="O26" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>163840</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>127</v>
       </c>
@@ -2129,8 +2618,25 @@
         <f t="array" ref="K27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>70</v>
+      </c>
+      <c r="M27">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>70</v>
+      </c>
+      <c r="O27" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>100</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>128</v>
       </c>
@@ -2168,8 +2674,25 @@
         <f t="array" ref="K28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>120</v>
+      </c>
+      <c r="M28">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>1350</v>
+      </c>
+      <c r="N28" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>120</v>
+      </c>
+      <c r="O28" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>1350</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>129</v>
       </c>
@@ -2207,8 +2730,25 @@
         <f t="array" ref="K29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>410</v>
+      </c>
+      <c r="N29" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>100</v>
+      </c>
+      <c r="O29" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>410</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>130</v>
       </c>
@@ -2246,8 +2786,25 @@
         <f t="array" ref="K30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>850</v>
+      </c>
+      <c r="M30">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>8540</v>
+      </c>
+      <c r="N30" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>850</v>
+      </c>
+      <c r="O30" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>8540</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>131</v>
       </c>
@@ -2285,8 +2842,25 @@
         <f t="array" ref="K31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>1000</v>
+      </c>
+      <c r="M31">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>5900</v>
+      </c>
+      <c r="N31" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1000</v>
+      </c>
+      <c r="O31" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>5900</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>132</v>
       </c>
@@ -2324,8 +2898,25 @@
         <f t="array" ref="K32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>2000</v>
+      </c>
+      <c r="M32">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>3600</v>
+      </c>
+      <c r="N32" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>2000</v>
+      </c>
+      <c r="O32" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>3600</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>133</v>
       </c>
@@ -2363,8 +2954,25 @@
         <f t="array" ref="K33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>5500</v>
+      </c>
+      <c r="M33">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>12000</v>
+      </c>
+      <c r="N33" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>5500</v>
+      </c>
+      <c r="O33" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>12000</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>134</v>
       </c>
@@ -2402,8 +3010,25 @@
         <f t="array" ref="K34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>1800</v>
+      </c>
+      <c r="M34">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>6500</v>
+      </c>
+      <c r="N34" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1800</v>
+      </c>
+      <c r="O34" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>6500</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>135</v>
       </c>
@@ -2441,8 +3066,25 @@
         <f t="array" ref="K35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>250</v>
+      </c>
+      <c r="M35">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>3409</v>
+      </c>
+      <c r="N35" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>250</v>
+      </c>
+      <c r="O35" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>3409</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>136</v>
       </c>
@@ -2480,8 +3122,25 @@
         <f t="array" ref="K36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>900</v>
+      </c>
+      <c r="M36">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>11690</v>
+      </c>
+      <c r="N36" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>900</v>
+      </c>
+      <c r="O36" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>11690</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>137</v>
       </c>
@@ -2519,8 +3178,25 @@
         <f t="array" ref="K37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>216.7</v>
+      </c>
+      <c r="M37">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>370.6</v>
+      </c>
+      <c r="N37" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>17336</v>
+      </c>
+      <c r="O37" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>29648</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>138</v>
       </c>
@@ -2558,8 +3234,25 @@
         <f t="array" ref="K38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>177</v>
+      </c>
+      <c r="M38">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>714.4</v>
+      </c>
+      <c r="N38" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>14160</v>
+      </c>
+      <c r="O38" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>57152</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2597,8 +3290,25 @@
         <f t="array" ref="K39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>1800</v>
+      </c>
+      <c r="M39">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>3100</v>
+      </c>
+      <c r="N39" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>1800</v>
+      </c>
+      <c r="O39" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>3100</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>140</v>
       </c>
@@ -2636,8 +3346,25 @@
         <f t="array" ref="K40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
+        <v>500</v>
+      </c>
+      <c r="M40">
+        <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
+        <v>950</v>
+      </c>
+      <c r="N40" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
+        <v>500</v>
+      </c>
+      <c r="O40" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>950</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D42">
         <f>SUM(Movies[budget])</f>
         <v>7214.08</v>
@@ -2645,12 +3372,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E20F18-286B-42F1-BD09-8250E60A6E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAB1E3-B930-4945-872E-C6963279386B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="actors" sheetId="3" r:id="rId3"/>
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
+    <sheet name="Marvel Financials" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
   <si>
     <t>movie_id</t>
   </si>
@@ -546,13 +547,72 @@
   </si>
   <si>
     <t>budget USD</t>
+  </si>
+  <si>
+    <t>revenue USD</t>
+  </si>
+  <si>
+    <t>TOTAL INR(mln)</t>
+  </si>
+  <si>
+    <t>TOTAL USD(mln)</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Total Movies</t>
+  </si>
+  <si>
+    <t>Total Bollywood Movies</t>
+  </si>
+  <si>
+    <t>% of Bollywood movie</t>
+  </si>
+  <si>
+    <t>Bollywood Budget</t>
+  </si>
+  <si>
+    <t>Bollywood revenue</t>
+  </si>
+  <si>
+    <t>Hollywood revenue</t>
+  </si>
+  <si>
+    <t>Average revenue</t>
+  </si>
+  <si>
+    <t>Hollywood movies</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>Marvel Consolidated P&amp;L</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,8 +626,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +644,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,28 +669,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -651,6 +732,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -716,6 +803,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -755,9 +848,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:P40" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:P40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:Q40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
     <tableColumn id="8" xr3:uid="{AEC53FD7-BF8A-4895-B8F6-DCBA25100657}" name="title"/>
     <tableColumn id="3" xr3:uid="{A73DC6E7-A5B7-4D92-B13E-587CFA363BFA}" name="industry"/>
@@ -765,38 +858,43 @@
     <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="15">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="14">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="13">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="13">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="12">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="11">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="10">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="5">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="4">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -810,7 +908,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -822,7 +920,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -833,7 +931,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1106,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="I24" zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,9 +1226,10 @@
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
     <col min="15" max="15" width="15.44140625" customWidth="1"/>
     <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1278,11 @@
       <c r="P1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1226,17 +1328,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12500</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>12500</v>
       </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1282,17 +1391,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>954.8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>76384</v>
       </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>200</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>954.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1338,17 +1454,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>51584</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>165</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>644.79999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1394,17 +1517,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>854</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14400</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>68320</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>180</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1450,17 +1580,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>670</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>20000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>53600</v>
       </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>250</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1506,17 +1643,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P7" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="Q7" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1562,17 +1706,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>2000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1618,17 +1769,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>550</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>4000</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>6.875</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1674,17 +1832,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1360</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>390</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>1360</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>4.875</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1730,17 +1895,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3500</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1400</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>3500</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>17.5</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1786,17 +1958,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>73.3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>5864</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1842,17 +2021,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N13" s="3" t="str">
+      <c r="N13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O13" s="3" t="str">
+      <c r="O13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P13" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>Not Available</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>Not Available</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1898,17 +2084,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>701.8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>56144</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>165</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>701.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>115</v>
       </c>
@@ -1954,17 +2147,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>24568</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>55</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>307.10000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>116</v>
       </c>
@@ -2010,17 +2210,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>460.5</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>8240</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>36840</v>
       </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>103</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>460.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>117</v>
       </c>
@@ -2066,17 +2273,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2202</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>176160</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>118</v>
       </c>
@@ -2122,17 +2336,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3.3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>254.4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>264</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>3.18</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>119</v>
       </c>
@@ -2178,17 +2399,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2847</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>18960</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>227760</v>
       </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>237</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>120</v>
       </c>
@@ -2234,17 +2462,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>291</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>576</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>23280</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>7.2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>121</v>
       </c>
@@ -2290,17 +2525,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1006</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>80480</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>185</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>122</v>
       </c>
@@ -2346,17 +2588,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>322.2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1760</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>25776</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>22</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>322.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>123</v>
       </c>
@@ -2402,17 +2651,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1046</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5040</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>83680</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>63</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>124</v>
       </c>
@@ -2458,17 +2714,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1240</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>21048</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>15.5</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>263.10000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>125</v>
       </c>
@@ -2514,17 +2777,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2798</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>223840</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>400</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>126</v>
       </c>
@@ -2570,17 +2840,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2048</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>163840</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>127</v>
       </c>
@@ -2626,17 +2903,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>70</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>100</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>0.875</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>128</v>
       </c>
@@ -2682,17 +2966,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1350</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>120</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>1350</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>129</v>
       </c>
@@ -2738,17 +3029,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>410</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>410</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>130</v>
       </c>
@@ -2794,17 +3092,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>8540</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>850</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>8540</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>10.625</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>131</v>
       </c>
@@ -2850,17 +3155,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>5900</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>5900</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>132</v>
       </c>
@@ -2906,17 +3218,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>3600</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>25</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>133</v>
       </c>
@@ -2962,17 +3281,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>12000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>68.75</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>134</v>
       </c>
@@ -3018,17 +3344,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>6500</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>6500</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>135</v>
       </c>
@@ -3074,17 +3407,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3409</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>3409</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>3.125</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>42.612499999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>136</v>
       </c>
@@ -3130,17 +3470,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>11690</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>900</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>11690</v>
       </c>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>11.25</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>146.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>137</v>
       </c>
@@ -3186,17 +3533,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>370.6</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>17336</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>29648</v>
       </c>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>216.7</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>370.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>138</v>
       </c>
@@ -3242,17 +3596,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>714.4</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14160</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>57152</v>
       </c>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>177</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>714.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -3298,17 +3659,24 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3100</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>3100</v>
       </c>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>22.5</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>140</v>
       </c>
@@ -3354,30 +3722,133 @@
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>950</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>500</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>950</v>
       </c>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <f>SUM(Movies[budget])</f>
-        <v>7214.08</v>
+      <c r="P40">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
+        <v>6.25</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="9">
+        <f>COUNT(Movies[movie_id])</f>
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>165</v>
+      </c>
+      <c r="O42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="9">
+        <f>COUNTIF(Movies[industry],"Bollywood")</f>
+        <v>18</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="5">
+        <f>SUM(Movies[Budget INR])</f>
+        <v>264196.40000000002</v>
+      </c>
+      <c r="O43" s="6">
+        <f>SUM(Movies[[#All],[revenue INR]])</f>
+        <v>1567141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="10">
+        <f>C43/C42</f>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="9">
+        <f>SUMIF(Movies[industry],"Bollywood",Movies[Budget INR])</f>
+        <v>18630</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7">
+        <f>SUM(Movies[[#All],[budget USD]])</f>
+        <v>3302.4549999999999</v>
+      </c>
+      <c r="O45" s="7">
+        <f>SUM(Movies[[#All],[revenue USD]])</f>
+        <v>19589.262500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="9">
+        <f>SUMIF(Movies[industry],"Bollywood",Movies[revenue INR])</f>
+        <v>80909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="2">
+        <f>SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
+        <v>18577.900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="2">
+        <f>AVERAGE(C47/C49)</f>
+        <v>884.66190476190479</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="2">
+        <f>COUNTIF(Movies[industry],"Hollywood")</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5679,6 +6150,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E674B2-6C74-480D-B3AB-43E6B18BBD09}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[revenue USD])</f>
+        <v>9054.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[budget])</f>
+        <v>1988.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5">
+        <f>C3-C4</f>
+        <v>7065.9000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5/C4</f>
+        <v>3.5530245889274403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5699,6 +6232,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -5927,15 +6469,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
@@ -5948,6 +6481,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5964,12 +6505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAB1E3-B930-4945-872E-C6963279386B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3265E4D2-0F3D-4649-8A20-B4F171AD4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="186">
   <si>
     <t>movie_id</t>
   </si>
@@ -601,16 +601,35 @@
   </si>
   <si>
     <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t>Profit/Loss %</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target-Actuals</t>
+  </si>
+  <si>
+    <t>Target -Actuals  %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -674,11 +693,10 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -686,13 +704,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -734,10 +755,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -809,6 +834,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -848,7 +879,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:Q40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
@@ -858,34 +889,34 @@
     <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="16">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="15">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="14">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="14">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="13">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="12">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="11">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="10">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="9">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -894,7 +925,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -908,7 +939,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -920,7 +951,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -931,7 +962,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1340,7 +1371,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>156.25</v>
       </c>
@@ -1403,7 +1434,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>954.8</v>
       </c>
@@ -1466,7 +1497,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>644.79999999999995</v>
       </c>
@@ -1529,7 +1560,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>180</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>854</v>
       </c>
@@ -1592,7 +1623,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>670</v>
       </c>
@@ -1655,7 +1686,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>Not Available</v>
       </c>
@@ -1718,7 +1749,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>25</v>
       </c>
@@ -1781,7 +1812,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.875</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>50</v>
       </c>
@@ -1844,7 +1875,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>4.875</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>17</v>
       </c>
@@ -1907,7 +1938,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>17.5</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>43.75</v>
       </c>
@@ -1970,7 +2001,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>73.3</v>
       </c>
@@ -2033,7 +2064,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>Not Available</v>
       </c>
@@ -2096,7 +2127,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>701.8</v>
       </c>
@@ -2159,7 +2190,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>55</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>307.10000000000002</v>
       </c>
@@ -2222,7 +2253,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>103</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>460.5</v>
       </c>
@@ -2285,7 +2316,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>2202</v>
       </c>
@@ -2348,7 +2379,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.18</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>3.3</v>
       </c>
@@ -2411,7 +2442,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>237</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>2847</v>
       </c>
@@ -2474,7 +2505,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>7.2</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>291</v>
       </c>
@@ -2537,7 +2568,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>185</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>1006</v>
       </c>
@@ -2600,7 +2631,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>322.2</v>
       </c>
@@ -2663,7 +2694,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>63</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>1046</v>
       </c>
@@ -2726,7 +2757,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>15.5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>263.10000000000002</v>
       </c>
@@ -2789,7 +2820,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>2798</v>
       </c>
@@ -2852,7 +2883,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>2048</v>
       </c>
@@ -2915,7 +2946,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>0.875</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>1.25</v>
       </c>
@@ -2978,7 +3009,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.5</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>16.875</v>
       </c>
@@ -3041,7 +3072,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.25</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>5.125</v>
       </c>
@@ -3104,7 +3135,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>10.625</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>106.75</v>
       </c>
@@ -3167,7 +3198,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>73.75</v>
       </c>
@@ -3230,7 +3261,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>45</v>
       </c>
@@ -3293,7 +3324,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>68.75</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>150</v>
       </c>
@@ -3356,7 +3387,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>81.25</v>
       </c>
@@ -3419,7 +3450,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.125</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>42.612499999999997</v>
       </c>
@@ -3482,7 +3513,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>11.25</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>146.125</v>
       </c>
@@ -3545,7 +3576,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>216.7</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>370.6</v>
       </c>
@@ -3608,7 +3639,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>177</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>714.4</v>
       </c>
@@ -3671,7 +3702,7 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>38.75</v>
       </c>
@@ -3734,16 +3765,16 @@
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.25</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
         <v>11.875</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f>COUNT(Movies[movie_id])</f>
         <v>39</v>
       </c>
@@ -3755,61 +3786,61 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <f>COUNTIF(Movies[industry],"Bollywood")</f>
         <v>18</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="5">
+      <c r="M43" s="3"/>
+      <c r="N43" s="4">
         <f>SUM(Movies[Budget INR])</f>
         <v>264196.40000000002</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <f>SUM(Movies[[#All],[revenue INR]])</f>
         <v>1567141</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <f>C43/C42</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <f>SUMIF(Movies[industry],"Bollywood",Movies[Budget INR])</f>
         <v>18630</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6">
         <f>SUM(Movies[[#All],[budget USD]])</f>
         <v>3302.4549999999999</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <f>SUM(Movies[[#All],[revenue USD]])</f>
         <v>19589.262500000001</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <f>SUMIF(Movies[industry],"Bollywood",Movies[revenue INR])</f>
         <v>80909</v>
       </c>
@@ -3843,12 +3874,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6152,62 +6183,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E674B2-6C74-480D-B3AB-43E6B18BBD09}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>177</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <f>SUMIF(Movies[studio],"Marvel Studios",Movies[revenue USD])</f>
         <v>9054.6</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C3-D3</f>
+        <v>1054.6000000000004</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3/C3</f>
+        <v>0.11647118591655074</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>178</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <f>SUMIF(Movies[studio],"Marvel Studios",Movies[budget])</f>
         <v>1988.7</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E7" si="0">C4-D4</f>
+        <v>-11.299999999999955</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F7" si="1">E4/C4</f>
+        <v>-5.6821038869613082E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <f>C3-C4</f>
         <v>7065.9000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="12">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>1065.9000000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15085127160022085</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="8">
+        <v>180</v>
+      </c>
+      <c r="C6" s="7">
         <f>C5/C4</f>
         <v>3.5530245889274403</v>
       </c>
+      <c r="D6" s="10">
+        <f>D5/D4</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.55302458892744033</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15564896191567959</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="7">
+        <f>C3/SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
+        <v>0.48738554949698293</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>-6.2614450503017116E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.12847005941731293</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>-0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6232,15 +6352,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6469,6 +6580,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
@@ -6481,14 +6601,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6505,4 +6617,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3265E4D2-0F3D-4649-8A20-B4F171AD4EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4712467-9C54-4D3F-AE2F-C798E25DA5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
     <sheet name="Marvel Financials" sheetId="6" r:id="rId6"/>
+    <sheet name="Stats" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="202">
   <si>
     <t>movie_id</t>
   </si>
@@ -72,9 +73,6 @@
     <t>release_year</t>
   </si>
   <si>
-    <t>imdb_rating</t>
-  </si>
-  <si>
     <t>studio</t>
   </si>
   <si>
@@ -619,6 +617,57 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean </t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Yearly Income</t>
+  </si>
+  <si>
+    <t>Azio</t>
+  </si>
+  <si>
+    <t>Juganda Income Levels</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -653,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +727,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -693,7 +748,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -707,13 +762,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -761,6 +821,22 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
         </patternFill>
       </fill>
     </dxf>
@@ -879,44 +955,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:Q40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
     <tableColumn id="8" xr3:uid="{AEC53FD7-BF8A-4895-B8F6-DCBA25100657}" name="title"/>
     <tableColumn id="3" xr3:uid="{A73DC6E7-A5B7-4D92-B13E-587CFA363BFA}" name="industry"/>
     <tableColumn id="4" xr3:uid="{DFE5EBBB-5DEF-4AB9-A5C9-802FC0AD1B5B}" name="release_year"/>
-    <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
+    <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="19">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="16">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="15">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="17">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="16">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="15">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="14">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="13">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="12">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="11">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,7 +1001,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -939,7 +1015,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -951,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -962,13 +1038,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
     <tableColumn id="2" xr3:uid="{583CF6B9-244C-4D0F-A271-B5A1C600F170}" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}" name="Table6" displayName="Table6" ref="B11:C19" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B11:C19" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0ADA2DE7-C643-4D5A-A7A8-91C0BC9E5C16}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F0D769EF-3A42-4998-930C-16F27B0532B3}" name="Yearly Income"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D8B27495-470B-4039-A65C-50F84F80B447}" name="Table7" displayName="Table7" ref="H11:I19" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="H11:I19" xr:uid="{D8B27495-470B-4039-A65C-50F84F80B447}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A758C4A4-895E-43DF-B315-38DF24D18AFB}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{9FB9D811-1FF7-4F60-BBD1-0D154DC44813}" name="Yearly Income"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1237,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="I24" zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1274,43 +1372,43 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,10 +1416,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -1330,7 +1428,7 @@
         <v>8.4</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1381,10 +1479,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -1393,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1444,10 +1542,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2013</v>
@@ -1456,7 +1554,7 @@
         <v>6.8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1507,10 +1605,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2017</v>
@@ -1519,7 +1617,7 @@
         <v>7.9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1570,10 +1668,10 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2022</v>
@@ -1582,7 +1680,7 @@
         <v>6.8</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1633,10 +1731,10 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1975</v>
@@ -1645,7 +1743,7 @@
         <v>8.1</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1696,10 +1794,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1995</v>
@@ -1708,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1759,10 +1857,10 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2009</v>
@@ -1771,7 +1869,7 @@
         <v>8.4</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1822,10 +1920,10 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2001</v>
@@ -1834,7 +1932,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1885,10 +1983,10 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2015</v>
@@ -1897,7 +1995,7 @@
         <v>7.2</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1948,10 +2046,10 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1994</v>
@@ -1960,7 +2058,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2011,10 +2109,10 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2010</v>
@@ -2023,7 +2121,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2074,10 +2172,10 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -2086,7 +2184,7 @@
         <v>8.6</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2137,10 +2235,10 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2006</v>
@@ -2149,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2200,10 +2298,10 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -2212,7 +2310,7 @@
         <v>8.5</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2263,10 +2361,10 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1997</v>
@@ -2275,7 +2373,7 @@
         <v>7.9</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2326,10 +2424,10 @@
         <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>1946</v>
@@ -2338,7 +2436,7 @@
         <v>8.6</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2389,10 +2487,10 @@
         <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2009</v>
@@ -2401,7 +2499,7 @@
         <v>7.8</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2452,10 +2550,10 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>1972</v>
@@ -2464,7 +2562,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2515,10 +2613,10 @@
         <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2008</v>
@@ -2527,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2578,10 +2676,10 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1993</v>
@@ -2590,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2641,10 +2739,10 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>1993</v>
@@ -2653,7 +2751,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2704,10 +2802,10 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -2716,7 +2814,7 @@
         <v>8.5</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2767,10 +2865,10 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -2779,7 +2877,7 @@
         <v>8.4</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2830,10 +2928,10 @@
         <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2018</v>
@@ -2842,7 +2940,7 @@
         <v>8.4</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2893,10 +2991,10 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1955</v>
@@ -2905,7 +3003,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2956,10 +3054,10 @@
         <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2007</v>
@@ -2968,7 +3066,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3019,10 +3117,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2003</v>
@@ -3031,7 +3129,7 @@
         <v>8.1</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3082,10 +3180,10 @@
         <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -3094,7 +3192,7 @@
         <v>8.1</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3145,19 +3243,19 @@
         <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3208,10 +3306,10 @@
         <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -3220,7 +3318,7 @@
         <v>7.6</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3271,10 +3369,10 @@
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2022</v>
@@ -3283,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3334,10 +3432,10 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>2015</v>
@@ -3346,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3397,10 +3495,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -3409,7 +3507,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,10 +3558,10 @@
         <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>2015</v>
@@ -3472,7 +3570,7 @@
         <v>8.1</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3523,10 +3621,10 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2011</v>
@@ -3535,7 +3633,7 @@
         <v>6.9</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3586,10 +3684,10 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2014</v>
@@ -3598,7 +3696,7 @@
         <v>7.8</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3649,10 +3747,10 @@
         <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>2018</v>
@@ -3661,7 +3759,7 @@
         <v>1.9</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3712,10 +3810,10 @@
         <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>2021</v>
@@ -3724,7 +3822,7 @@
         <v>8.4</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3772,29 +3870,29 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="8">
         <f>COUNT(Movies[movie_id])</f>
         <v>39</v>
       </c>
       <c r="N42" t="s">
+        <v>164</v>
+      </c>
+      <c r="O42" t="s">
         <v>165</v>
-      </c>
-      <c r="O42" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(Movies[industry],"Bollywood")</f>
         <v>18</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="4">
@@ -3808,7 +3906,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="9">
         <f>C43/C42</f>
@@ -3817,14 +3915,14 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="8">
         <f>SUMIF(Movies[industry],"Bollywood",Movies[Budget INR])</f>
         <v>18630</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6">
@@ -3838,7 +3936,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="8">
         <f>SUMIF(Movies[industry],"Bollywood",Movies[revenue INR])</f>
@@ -3847,7 +3945,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2">
         <f>SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
@@ -3856,7 +3954,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2">
         <f>AVERAGE(C47/C49)</f>
@@ -3865,7 +3963,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2">
         <f>COUNTIF(Movies[industry],"Hollywood")</f>
@@ -3908,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3931,10 +4029,10 @@
         <v>12.5</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3948,10 +4046,10 @@
         <v>954.8</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3965,10 +4063,10 @@
         <v>644.79999999999995</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3982,10 +4080,10 @@
         <v>854</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3999,10 +4097,10 @@
         <v>670</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4016,10 +4114,10 @@
         <v>2000</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4033,10 +4131,10 @@
         <v>4000</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4050,10 +4148,10 @@
         <v>1360</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4067,10 +4165,10 @@
         <v>3.5</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4084,10 +4182,10 @@
         <v>73.3</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4101,10 +4199,10 @@
         <v>701.8</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4118,10 +4216,10 @@
         <v>365.3</v>
       </c>
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4135,10 +4233,10 @@
         <v>307.10000000000002</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4152,10 +4250,10 @@
         <v>460.5</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4169,10 +4267,10 @@
         <v>2202</v>
       </c>
       <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4186,10 +4284,10 @@
         <v>3.3</v>
       </c>
       <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4203,10 +4301,10 @@
         <v>2847</v>
       </c>
       <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4220,10 +4318,10 @@
         <v>291</v>
       </c>
       <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
         <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4237,10 +4335,10 @@
         <v>1006</v>
       </c>
       <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
         <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4254,10 +4352,10 @@
         <v>322.2</v>
       </c>
       <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
         <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4271,10 +4369,10 @@
         <v>1046</v>
       </c>
       <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4288,10 +4386,10 @@
         <v>263.10000000000002</v>
       </c>
       <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
         <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4305,10 +4403,10 @@
         <v>2798</v>
       </c>
       <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4322,10 +4420,10 @@
         <v>2048</v>
       </c>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4339,10 +4437,10 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4356,10 +4454,10 @@
         <v>1350</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4373,10 +4471,10 @@
         <v>410</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4390,10 +4488,10 @@
         <v>8540</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4407,10 +4505,10 @@
         <v>5.9</v>
       </c>
       <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4424,10 +4522,10 @@
         <v>3.6</v>
       </c>
       <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4441,10 +4539,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4458,10 +4556,10 @@
         <v>6.5</v>
       </c>
       <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
         <v>31</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4475,10 +4573,10 @@
         <v>3409</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4492,10 +4590,10 @@
         <v>11690</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4509,10 +4607,10 @@
         <v>370.6</v>
       </c>
       <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
         <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4526,10 +4624,10 @@
         <v>714.4</v>
       </c>
       <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
         <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4543,10 +4641,10 @@
         <v>3.1</v>
       </c>
       <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4560,10 +4658,10 @@
         <v>950</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4577,10 +4675,10 @@
         <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4594,10 +4692,10 @@
         <v>836.8</v>
       </c>
       <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
         <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4625,13 +4723,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4639,7 +4737,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>1986</v>
@@ -4650,7 +4748,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1959</v>
@@ -4661,7 +4759,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1976</v>
@@ -4672,7 +4770,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1989</v>
@@ -4683,7 +4781,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1983</v>
@@ -4694,7 +4792,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1981</v>
@@ -4705,7 +4803,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1981</v>
@@ -4716,7 +4814,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>1942</v>
@@ -4727,7 +4825,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>1948</v>
@@ -4738,7 +4836,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1965</v>
@@ -4749,7 +4847,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>1974</v>
@@ -4760,7 +4858,7 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>1965</v>
@@ -4771,7 +4869,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>1970</v>
@@ -4782,7 +4880,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1979</v>
@@ -4793,7 +4891,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1974</v>
@@ -4804,7 +4902,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1985</v>
@@ -4815,7 +4913,7 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>1986</v>
@@ -4826,7 +4924,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1958</v>
@@ -4837,7 +4935,7 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1937</v>
@@ -4848,7 +4946,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>1974</v>
@@ -4859,7 +4957,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>1959</v>
@@ -4870,7 +4968,7 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>1969</v>
@@ -4881,7 +4979,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1982</v>
@@ -4892,7 +4990,7 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>1984</v>
@@ -4903,7 +5001,7 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>1986</v>
@@ -4914,7 +5012,7 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>1968</v>
@@ -4925,7 +5023,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>1972</v>
@@ -4936,7 +5034,7 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>1964</v>
@@ -4947,7 +5045,7 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1974</v>
@@ -4958,7 +5056,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1975</v>
@@ -4969,7 +5067,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>1908</v>
@@ -4980,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>1921</v>
@@ -4991,7 +5089,7 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>1976</v>
@@ -5002,7 +5100,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>1978</v>
@@ -5013,7 +5111,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>1924</v>
@@ -5024,7 +5122,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>1940</v>
@@ -5035,7 +5133,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>1974</v>
@@ -5046,7 +5144,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>1979</v>
@@ -5057,7 +5155,7 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>1952</v>
@@ -5068,7 +5166,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>1943</v>
@@ -5079,7 +5177,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>1947</v>
@@ -5090,7 +5188,7 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>1967</v>
@@ -5101,7 +5199,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>1967</v>
@@ -5112,7 +5210,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>1975</v>
@@ -5123,7 +5221,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>1965</v>
@@ -5134,7 +5232,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>1981</v>
@@ -5145,7 +5243,7 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>1905</v>
@@ -5156,7 +5254,7 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>1919</v>
@@ -5167,7 +5265,7 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50">
         <v>1997</v>
@@ -5178,7 +5276,7 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>1929</v>
@@ -5189,7 +5287,7 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>1988</v>
@@ -5200,7 +5298,7 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>1982</v>
@@ -5211,7 +5309,7 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>1982</v>
@@ -5222,7 +5320,7 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>1982</v>
@@ -5233,7 +5331,7 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>1983</v>
@@ -5244,7 +5342,7 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>1985</v>
@@ -5255,7 +5353,7 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>1979</v>
@@ -5266,7 +5364,7 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>1984</v>
@@ -5277,7 +5375,7 @@
         <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>1950</v>
@@ -5288,7 +5386,7 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>1955</v>
@@ -5299,7 +5397,7 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62">
         <v>1965</v>
@@ -5310,7 +5408,7 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63">
         <v>1967</v>
@@ -5321,7 +5419,7 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64">
         <v>1946</v>
@@ -5332,7 +5430,7 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <v>1982</v>
@@ -5343,7 +5441,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66">
         <v>1956</v>
@@ -5354,7 +5452,7 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67">
         <v>1985</v>
@@ -5365,7 +5463,7 @@
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68">
         <v>1991</v>
@@ -5397,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6103,10 +6201,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6114,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6122,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6130,7 +6228,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6138,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6146,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6154,7 +6252,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6162,7 +6260,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6170,7 +6268,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6185,7 +6283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E674B2-6C74-480D-B3AB-43E6B18BBD09}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6200,24 +6298,24 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" t="s">
-        <v>176</v>
-      </c>
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="12">
         <f>SUMIF(Movies[studio],"Marvel Studios",Movies[revenue USD])</f>
@@ -6235,12 +6333,12 @@
         <v>0.11647118591655074</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="12">
         <f>SUMIF(Movies[studio],"Marvel Studios",Movies[budget])</f>
@@ -6260,7 +6358,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="12">
         <f>C3-C4</f>
@@ -6280,7 +6378,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="7">
         <f>C5/C4</f>
@@ -6301,7 +6399,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="7">
         <f>C3/SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
@@ -6329,6 +6427,214 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673FBDD1-198C-4B20-A1F3-1C747AC006BE}">
+  <dimension ref="B4:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="13">
+        <f>AVERAGE(Movies[rating])</f>
+        <v>7.9473684210526319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5">
+        <f>MEDIAN(Movies[rating])</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6">
+        <f>MODE(Movies[rating])</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(Table6[Yearly Income])</f>
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(Table7[Yearly Income])</f>
+        <v>49.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6352,6 +6658,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6580,15 +6895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
@@ -6601,6 +6907,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6617,12 +6931,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4712467-9C54-4D3F-AE2F-C798E25DA5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF963975-73B9-41B0-9C97-7F6AEA3EC78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="202">
   <si>
     <t>movie_id</t>
   </si>
@@ -6435,7 +6435,7 @@
   <dimension ref="B4:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6483,6 +6483,9 @@
         <v>200</v>
       </c>
       <c r="C9" s="15"/>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
@@ -6639,34 +6642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
-    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6895,26 +6870,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
+    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6931,4 +6915,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF963975-73B9-41B0-9C97-7F6AEA3EC78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9789FDE-291F-4B68-AEF5-8C22BFA72A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,10 @@
     <sheet name="Marvel Financials" sheetId="6" r:id="rId6"/>
     <sheet name="Stats" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="juganda_mean_income">Stats!$C$21</definedName>
+    <definedName name="Krance_Mena">Stats!$I$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
   <si>
     <t>movie_id</t>
   </si>
@@ -668,6 +672,18 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Krance  Income Levels</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income-Avg </t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -702,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -748,7 +770,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -767,13 +789,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -821,14 +858,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.749992370372631"/>
         </patternFill>
       </fill>
     </dxf>
@@ -955,7 +984,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:Q40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
@@ -965,34 +994,34 @@
     <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="19">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="22">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="18">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="17">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="19">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="18">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="17">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="16">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="12">
+    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="15">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="14">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1001,7 +1030,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -1015,7 +1044,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -1027,7 +1056,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -1038,7 +1067,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1049,22 +1078,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}" name="Table6" displayName="Table6" ref="B11:C19" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B11:C19" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}" name="Table6" displayName="Table6" ref="B11:E20" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="B11:E19" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0ADA2DE7-C643-4D5A-A7A8-91C0BC9E5C16}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F0D769EF-3A42-4998-930C-16F27B0532B3}" name="Yearly Income"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D8B27495-470B-4039-A65C-50F84F80B447}" name="Table7" displayName="Table7" ref="H11:I19" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="H11:I19" xr:uid="{D8B27495-470B-4039-A65C-50F84F80B447}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A758C4A4-895E-43DF-B315-38DF24D18AFB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9FB9D811-1FF7-4F60-BBD1-0D154DC44813}" name="Yearly Income"/>
+    <tableColumn id="3" xr3:uid="{670550D3-4AE9-4A34-B07C-51780F186308}" name="Income-Avg " dataDxfId="3" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5927412C-BC41-4936-B93F-153C772D98C5}" name="Square" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
+      <calculatedColumnFormula>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E12:E19)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3972,12 +3997,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6422,7 +6447,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6432,21 +6457,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673FBDD1-198C-4B20-A1F3-1C747AC006BE}">
-  <dimension ref="B4:I21"/>
+  <dimension ref="B4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>186</v>
       </c>
@@ -6455,7 +6481,7 @@
         <v>7.9473684210526319</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>187</v>
       </c>
@@ -6464,7 +6490,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -6473,147 +6499,257 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="15"/>
       <c r="H9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>198</v>
       </c>
+      <c r="D11" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="H11" s="14" t="s">
         <v>190</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>191</v>
       </c>
       <c r="C12">
         <v>71</v>
       </c>
+      <c r="D12">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>81</v>
+      </c>
       <c r="H12" t="s">
         <v>191</v>
       </c>
       <c r="I12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="J12" s="16">
+        <f>I12-Krance_Mena</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>192</v>
       </c>
       <c r="C13">
         <v>62</v>
       </c>
+      <c r="D13">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
         <v>192</v>
       </c>
       <c r="I13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="J13" s="16">
+        <f>I13-Krance_Mena</f>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>193</v>
       </c>
       <c r="C14">
         <v>66</v>
       </c>
+      <c r="D14">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>16</v>
+      </c>
       <c r="H14" t="s">
         <v>193</v>
       </c>
       <c r="I14">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J14" s="16">
+        <f>I14-Krance_Mena</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>194</v>
       </c>
       <c r="C15">
         <v>61</v>
       </c>
+      <c r="D15">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>1</v>
+      </c>
       <c r="H15" t="s">
         <v>194</v>
       </c>
       <c r="I15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="J15" s="16">
+        <f>I15-Krance_Mena</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>195</v>
       </c>
       <c r="C16">
         <v>54</v>
       </c>
+      <c r="D16">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>64</v>
+      </c>
       <c r="H16" t="s">
         <v>195</v>
       </c>
       <c r="I16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J16" s="16">
+        <f>I16-Krance_Mena</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>196</v>
       </c>
       <c r="C17">
         <v>67</v>
       </c>
+      <c r="D17">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>25</v>
+      </c>
       <c r="H17" t="s">
         <v>196</v>
       </c>
       <c r="I17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="J17" s="16">
+        <f>I17-Krance_Mena</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>197</v>
       </c>
       <c r="C18">
         <v>55</v>
       </c>
+      <c r="D18">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>-7</v>
+      </c>
+      <c r="E18">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>49</v>
+      </c>
       <c r="H18" t="s">
         <v>197</v>
       </c>
       <c r="I18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="J18" s="16">
+        <f>I18-Krance_Mena</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>199</v>
       </c>
       <c r="C19">
         <v>60</v>
       </c>
+      <c r="D19">
+        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
+        <v>-2</v>
+      </c>
+      <c r="E19">
+        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
+        <v>4</v>
+      </c>
       <c r="H19" t="s">
         <v>199</v>
       </c>
       <c r="I19">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="J19" s="16">
+        <f>I19-Krance_Mena</f>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
+        <f>SUM(E12:E19)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>201</v>
       </c>
@@ -6624,9 +6760,27 @@
       <c r="H21" t="s">
         <v>201</v>
       </c>
-      <c r="I21">
-        <f>AVERAGE(Table7[Yearly Income])</f>
-        <v>49.75</v>
+      <c r="I21" s="16">
+        <f>AVERAGE(Stats!$I$12:$I$19)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23">
+        <f>COUNT(Table6[Square])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="18">
+        <f>Table6[[#Totals],[Square]]/E23</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6634,14 +6788,41 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
+    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6870,35 +7051,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
-    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6915,23 +7087,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,23 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9789FDE-291F-4B68-AEF5-8C22BFA72A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD562C4-A5A1-41BF-986A-9461326BA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
     <sheet name="financials" sheetId="2" r:id="rId2"/>
-    <sheet name="actors" sheetId="3" r:id="rId3"/>
-    <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
-    <sheet name="languages" sheetId="5" r:id="rId5"/>
-    <sheet name="Marvel Financials" sheetId="6" r:id="rId6"/>
-    <sheet name="Stats" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="actors" sheetId="3" r:id="rId4"/>
+    <sheet name="movie_actor" sheetId="4" r:id="rId5"/>
+    <sheet name="languages" sheetId="5" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="juganda_mean_income">Stats!$C$21</definedName>
-    <definedName name="Krance_Mena">Stats!$I$21</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="171">
   <si>
     <t>movie_id</t>
   </si>
@@ -77,6 +72,9 @@
     <t>release_year</t>
   </si>
   <si>
+    <t>imdb_rating</t>
+  </si>
+  <si>
     <t>studio</t>
   </si>
   <si>
@@ -539,31 +537,25 @@
     <t>budget mln</t>
   </si>
   <si>
-    <t>revenue(mln)</t>
+    <t>revenue mln</t>
   </si>
   <si>
     <t>Budget INR</t>
   </si>
   <si>
-    <t>revenue INR</t>
-  </si>
-  <si>
-    <t>budget USD</t>
-  </si>
-  <si>
-    <t>revenue USD</t>
-  </si>
-  <si>
-    <t>TOTAL INR(mln)</t>
-  </si>
-  <si>
-    <t>TOTAL USD(mln)</t>
-  </si>
-  <si>
-    <t>BUDGET</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
+    <t>Revenue INR</t>
+  </si>
+  <si>
+    <t>Budget USD</t>
+  </si>
+  <si>
+    <t>Revenue USD</t>
+  </si>
+  <si>
+    <t>Total INR(mln)</t>
+  </si>
+  <si>
+    <t>Total USD(mln)</t>
   </si>
   <si>
     <t>Total Movies</t>
@@ -572,129 +564,26 @@
     <t>Total Bollywood Movies</t>
   </si>
   <si>
-    <t>% of Bollywood movie</t>
-  </si>
-  <si>
-    <t>Bollywood Budget</t>
-  </si>
-  <si>
-    <t>Bollywood revenue</t>
-  </si>
-  <si>
-    <t>Hollywood revenue</t>
-  </si>
-  <si>
-    <t>Average revenue</t>
-  </si>
-  <si>
-    <t>Hollywood movies</t>
-  </si>
-  <si>
-    <t>Key Metrics</t>
-  </si>
-  <si>
-    <t>Marvel Consolidated P&amp;L</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Profit/Loss</t>
-  </si>
-  <si>
-    <t>Profit/Loss %</t>
-  </si>
-  <si>
-    <t>Market Share</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Target-Actuals</t>
-  </si>
-  <si>
-    <t>Target -Actuals  %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean </t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Aisha</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Sameer</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>Sana</t>
-  </si>
-  <si>
-    <t>Vikram</t>
-  </si>
-  <si>
-    <t>Yearly Income</t>
-  </si>
-  <si>
-    <t>Azio</t>
-  </si>
-  <si>
-    <t>Juganda Income Levels</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Krance  Income Levels</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income-Avg </t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>Total % Bollywood Movies</t>
+  </si>
+  <si>
+    <t>Total Bollywood revnue</t>
+  </si>
+  <si>
+    <t>Avg Bollywood revnue</t>
+  </si>
+  <si>
+    <t>mln Inr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -718,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,30 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,40 +630,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -848,24 +704,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.749992370372631"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,24 +765,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -984,45 +804,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:Q40" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:Q40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
     <tableColumn id="8" xr3:uid="{AEC53FD7-BF8A-4895-B8F6-DCBA25100657}" name="title"/>
     <tableColumn id="3" xr3:uid="{A73DC6E7-A5B7-4D92-B13E-587CFA363BFA}" name="industry"/>
     <tableColumn id="4" xr3:uid="{DFE5EBBB-5DEF-4AB9-A5C9-802FC0AD1B5B}" name="release_year"/>
-    <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="rating"/>
+    <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="22">
+    <tableColumn id="14" xr3:uid="{DD2A0151-E545-4BFF-93A3-124AFC8C3768}" name="budget" dataDxfId="16">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{DB0D2613-55BC-4836-9E67-0E5D587EA27B}" name="revenue">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="21">
+    <tableColumn id="15" xr3:uid="{4FC460F8-5501-4B3D-B612-AA6EA53F088D}" name="unit" dataDxfId="15">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B6BA2A99-F066-40A3-9296-01B350CD5DE5}" name="budget mln" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{107951D2-256B-4D7A-A137-40DF55661E64}" name="budget mln" dataDxfId="5">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{841F225B-D322-48AC-BE94-2E0F69FBE86B}" name="revenue(mln)" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{91358356-5D6E-47CB-84CF-FD41A677B750}" name="revenue mln" dataDxfId="4">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2C9C2DBC-3F47-4CF2-9E09-1DB82D0CB04A}" name="Budget INR" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{C5C26D6D-0DD8-4415-81B6-865A011AF08E}" name="Budget INR" dataDxfId="3">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D2B3426-0E78-470F-993F-6813C3D42096}" name="revenue INR" dataDxfId="16">
-      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{8B0A2F78-6D6E-4355-8C95-CE7EF662C51E}" name="Revenue INR" dataDxfId="2">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{347EBD29-E933-41F3-A5AB-E48F095B91F3}" name="budget USD" dataDxfId="15">
+    <tableColumn id="12" xr3:uid="{5861D129-7E95-41E7-8E30-44B9AE058538}" name="Budget USD" dataDxfId="1">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D4B63638-CAB9-4B5B-BFB0-618923323E54}" name="revenue USD" dataDxfId="14">
-      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{32DA323D-0396-47AA-A071-666A7B1324D0}" name="Revenue USD" dataDxfId="0">
+      <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1074,24 +894,6 @@
     <tableColumn id="2" xr3:uid="{583CF6B9-244C-4D0F-A271-B5A1C600F170}" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}" name="Table6" displayName="Table6" ref="B11:E20" totalsRowCount="1" headerRowDxfId="9">
-  <autoFilter ref="B11:E19" xr:uid="{B2080E44-E5B1-4E37-9219-C462ADFDB84F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0ADA2DE7-C643-4D5A-A7A8-91C0BC9E5C16}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F0D769EF-3A42-4998-930C-16F27B0532B3}" name="Yearly Income"/>
-    <tableColumn id="3" xr3:uid="{670550D3-4AE9-4A34-B07C-51780F186308}" name="Income-Avg " dataDxfId="3" totalsRowDxfId="1">
-      <calculatedColumnFormula>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{5927412C-BC41-4936-B93F-153C772D98C5}" name="Square" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
-      <calculatedColumnFormula>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(E12:E19)</totalsRowFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1358,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,18 +1171,17 @@
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1397,43 +1198,43 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,10 +1242,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -1453,7 +1254,7 @@
         <v>8.4</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1474,28 +1275,28 @@
         <f t="array" ref="K2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1000</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12500</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O2">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O2" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>12500</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q2">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q2" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>156.25</v>
       </c>
     </row>
@@ -1504,10 +1305,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -1516,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1537,28 +1338,28 @@
         <f t="array" ref="K3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>200</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>954.8</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O3">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O3" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>76384</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q3">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q3" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>954.8</v>
       </c>
     </row>
@@ -1567,10 +1368,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2013</v>
@@ -1579,7 +1380,7 @@
         <v>6.8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1600,28 +1401,28 @@
         <f t="array" ref="K4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>165</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O4">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O4" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>51584</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q4">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q4" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>644.79999999999995</v>
       </c>
     </row>
@@ -1630,10 +1431,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2017</v>
@@ -1642,7 +1443,7 @@
         <v>7.9</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1663,28 +1464,28 @@
         <f t="array" ref="K5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>180</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>854</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14400</v>
       </c>
-      <c r="O5">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O5" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>68320</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>180</v>
       </c>
-      <c r="Q5">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q5" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>854</v>
       </c>
     </row>
@@ -1693,10 +1494,10 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2022</v>
@@ -1705,7 +1506,7 @@
         <v>6.8</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1726,28 +1527,28 @@
         <f t="array" ref="K6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>250</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>670</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>20000</v>
       </c>
-      <c r="O6">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O6" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>53600</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="Q6">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q6" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>670</v>
       </c>
     </row>
@@ -1756,10 +1557,10 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>1975</v>
@@ -1768,7 +1569,7 @@
         <v>8.1</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1789,28 +1590,28 @@
         <f t="array" ref="K7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="3" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>Not Available</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="3" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O7" t="str">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O7" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q7" t="str">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q7" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
     </row>
@@ -1819,10 +1620,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1995</v>
@@ -1831,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1852,28 +1653,28 @@
         <f t="array" ref="K8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2000</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="O8">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O8" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>2000</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>5</v>
       </c>
-      <c r="Q8">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q8" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>25</v>
       </c>
     </row>
@@ -1882,10 +1683,10 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2009</v>
@@ -1894,7 +1695,7 @@
         <v>8.4</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1915,28 +1716,28 @@
         <f t="array" ref="K9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>550</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>4000</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>550</v>
       </c>
-      <c r="O9">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O9" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>4000</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.875</v>
       </c>
-      <c r="Q9">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q9" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>50</v>
       </c>
     </row>
@@ -1945,10 +1746,10 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2001</v>
@@ -1957,7 +1758,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1978,28 +1779,28 @@
         <f t="array" ref="K10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>390</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1360</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>390</v>
       </c>
-      <c r="O10">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O10" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>1360</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>4.875</v>
       </c>
-      <c r="Q10">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q10" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>17</v>
       </c>
     </row>
@@ -2008,10 +1809,10 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2015</v>
@@ -2020,7 +1821,7 @@
         <v>7.2</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2041,28 +1842,28 @@
         <f t="array" ref="K11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1400</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3500</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1400</v>
       </c>
-      <c r="O11">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O11" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3500</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>17.5</v>
       </c>
-      <c r="Q11">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q11" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>43.75</v>
       </c>
     </row>
@@ -2071,10 +1872,10 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>1994</v>
@@ -2083,7 +1884,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2104,28 +1905,28 @@
         <f t="array" ref="K12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>25</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>73.3</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O12">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O12" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>5864</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q12">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q12" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>73.3</v>
       </c>
     </row>
@@ -2134,10 +1935,10 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>2010</v>
@@ -2146,7 +1947,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2167,28 +1968,28 @@
         <f t="array" ref="K13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="3" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>Not Available</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="3" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O13" t="str">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O13" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q13" t="str">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q13" s="3" t="str">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
     </row>
@@ -2197,10 +1998,10 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -2209,7 +2010,7 @@
         <v>8.6</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2230,28 +2031,28 @@
         <f t="array" ref="K14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>165</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>701.8</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O14">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O14" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>56144</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q14">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q14" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>701.8</v>
       </c>
     </row>
@@ -2260,10 +2061,10 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2006</v>
@@ -2272,7 +2073,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -2293,28 +2094,28 @@
         <f t="array" ref="K15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>55</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>4400</v>
       </c>
-      <c r="O15">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O15" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>24568</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>55</v>
       </c>
-      <c r="Q15">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q15" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>307.10000000000002</v>
       </c>
     </row>
@@ -2323,10 +2124,10 @@
         <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -2335,7 +2136,7 @@
         <v>8.5</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -2356,28 +2157,28 @@
         <f t="array" ref="K16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>103</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>460.5</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>8240</v>
       </c>
-      <c r="O16">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O16" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>36840</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>103</v>
       </c>
-      <c r="Q16">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q16" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>460.5</v>
       </c>
     </row>
@@ -2386,10 +2187,10 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1997</v>
@@ -2398,7 +2199,7 @@
         <v>7.9</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2419,28 +2220,28 @@
         <f t="array" ref="K17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>200</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2202</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O17">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O17" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>176160</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q17">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q17" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2202</v>
       </c>
     </row>
@@ -2449,10 +2250,10 @@
         <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>1946</v>
@@ -2461,7 +2262,7 @@
         <v>8.6</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2482,28 +2283,28 @@
         <f t="array" ref="K18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>3.18</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3.3</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>254.4</v>
       </c>
-      <c r="O18">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O18" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>264</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.18</v>
       </c>
-      <c r="Q18">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q18" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>3.3</v>
       </c>
     </row>
@@ -2512,10 +2313,10 @@
         <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>2009</v>
@@ -2524,7 +2325,7 @@
         <v>7.8</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2545,28 +2346,28 @@
         <f t="array" ref="K19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>237</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2847</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>18960</v>
       </c>
-      <c r="O19">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O19" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>227760</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>237</v>
       </c>
-      <c r="Q19">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q19" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2847</v>
       </c>
     </row>
@@ -2575,10 +2376,10 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>1972</v>
@@ -2587,7 +2388,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -2608,28 +2409,28 @@
         <f t="array" ref="K20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>7.2</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>291</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>576</v>
       </c>
-      <c r="O20">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O20" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>23280</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>7.2</v>
       </c>
-      <c r="Q20">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q20" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>291</v>
       </c>
     </row>
@@ -2638,10 +2439,10 @@
         <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>2008</v>
@@ -2650,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -2671,28 +2472,28 @@
         <f t="array" ref="K21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>185</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1006</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14800</v>
       </c>
-      <c r="O21">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O21" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>80480</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>185</v>
       </c>
-      <c r="Q21">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q21" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1006</v>
       </c>
     </row>
@@ -2701,10 +2502,10 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>1993</v>
@@ -2713,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2734,28 +2535,28 @@
         <f t="array" ref="K22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>22</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>322.2</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1760</v>
       </c>
-      <c r="O22">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O22" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>25776</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22</v>
       </c>
-      <c r="Q22">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q22" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>322.2</v>
       </c>
     </row>
@@ -2764,10 +2565,10 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>1993</v>
@@ -2776,7 +2577,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -2797,28 +2598,28 @@
         <f t="array" ref="K23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>63</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1046</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5040</v>
       </c>
-      <c r="O23">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O23" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>83680</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>63</v>
       </c>
-      <c r="Q23">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q23" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1046</v>
       </c>
     </row>
@@ -2827,10 +2628,10 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -2839,7 +2640,7 @@
         <v>8.5</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2860,28 +2661,28 @@
         <f t="array" ref="K24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>15.5</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1240</v>
       </c>
-      <c r="O24">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O24" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>21048</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>15.5</v>
       </c>
-      <c r="Q24">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q24" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>263.10000000000002</v>
       </c>
     </row>
@@ -2890,10 +2691,10 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -2902,7 +2703,7 @@
         <v>8.4</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2923,28 +2724,28 @@
         <f t="array" ref="K25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2798</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O25">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O25" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>223840</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q25">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q25" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2798</v>
       </c>
     </row>
@@ -2953,10 +2754,10 @@
         <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>2018</v>
@@ -2965,7 +2766,7 @@
         <v>8.4</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -2986,28 +2787,28 @@
         <f t="array" ref="K26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2048</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O26">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O26" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>163840</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q26">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q26" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2048</v>
       </c>
     </row>
@@ -3016,10 +2817,10 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>1955</v>
@@ -3028,7 +2829,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3049,28 +2850,28 @@
         <f t="array" ref="K27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>70</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>100</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>70</v>
       </c>
-      <c r="O27">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O27" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>100</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>0.875</v>
       </c>
-      <c r="Q27">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q27" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1.25</v>
       </c>
     </row>
@@ -3079,10 +2880,10 @@
         <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2007</v>
@@ -3091,7 +2892,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3112,28 +2913,28 @@
         <f t="array" ref="K28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>120</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1350</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>120</v>
       </c>
-      <c r="O28">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O28" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>1350</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.5</v>
       </c>
-      <c r="Q28">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q28" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>16.875</v>
       </c>
     </row>
@@ -3142,10 +2943,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2003</v>
@@ -3154,7 +2955,7 @@
         <v>8.1</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3175,28 +2976,28 @@
         <f t="array" ref="K29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>100</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>410</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>100</v>
       </c>
-      <c r="O29">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O29" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>410</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.25</v>
       </c>
-      <c r="Q29">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q29" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>5.125</v>
       </c>
     </row>
@@ -3205,10 +3006,10 @@
         <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -3217,7 +3018,7 @@
         <v>8.1</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3238,28 +3039,28 @@
         <f t="array" ref="K30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>850</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>8540</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>850</v>
       </c>
-      <c r="O30">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O30" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>8540</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>10.625</v>
       </c>
-      <c r="Q30">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q30" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>106.75</v>
       </c>
     </row>
@@ -3268,19 +3069,19 @@
         <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3301,28 +3102,28 @@
         <f t="array" ref="K31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1000</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>5900</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O31">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O31" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>5900</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q31">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q31" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>73.75</v>
       </c>
     </row>
@@ -3331,10 +3132,10 @@
         <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -3343,7 +3144,7 @@
         <v>7.6</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3364,28 +3165,28 @@
         <f t="array" ref="K32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>2000</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3600</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O32">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O32" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3600</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q32">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q32" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>45</v>
       </c>
     </row>
@@ -3394,10 +3195,10 @@
         <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2022</v>
@@ -3406,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3427,28 +3228,28 @@
         <f t="array" ref="K33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>5500</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12000</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5500</v>
       </c>
-      <c r="O33">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O33" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>12000</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>68.75</v>
       </c>
-      <c r="Q33">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q33" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>150</v>
       </c>
     </row>
@@ -3457,10 +3258,10 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2015</v>
@@ -3469,7 +3270,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3490,28 +3291,28 @@
         <f t="array" ref="K34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1800</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>6500</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O34">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O34" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>6500</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q34">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q34" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>81.25</v>
       </c>
     </row>
@@ -3520,10 +3321,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -3532,7 +3333,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3553,28 +3354,28 @@
         <f t="array" ref="K35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>250</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3409</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="O35">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O35" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3409</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.125</v>
       </c>
-      <c r="Q35">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q35" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>42.612499999999997</v>
       </c>
     </row>
@@ -3583,10 +3384,10 @@
         <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2015</v>
@@ -3595,7 +3396,7 @@
         <v>8.1</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3616,28 +3417,28 @@
         <f t="array" ref="K36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>900</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>11690</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>900</v>
       </c>
-      <c r="O36">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O36" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>11690</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>11.25</v>
       </c>
-      <c r="Q36">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q36" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>146.125</v>
       </c>
     </row>
@@ -3646,10 +3447,10 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>2011</v>
@@ -3658,7 +3459,7 @@
         <v>6.9</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3679,28 +3480,28 @@
         <f t="array" ref="K37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>216.7</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>370.6</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>17336</v>
       </c>
-      <c r="O37">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O37" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>29648</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>216.7</v>
       </c>
-      <c r="Q37">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q37" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>370.6</v>
       </c>
     </row>
@@ -3709,10 +3510,10 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>2014</v>
@@ -3721,7 +3522,7 @@
         <v>7.8</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -3742,28 +3543,28 @@
         <f t="array" ref="K38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>177</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>714.4</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14160</v>
       </c>
-      <c r="O38">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O38" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>57152</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>177</v>
       </c>
-      <c r="Q38">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q38" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>714.4</v>
       </c>
     </row>
@@ -3772,10 +3573,10 @@
         <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2018</v>
@@ -3784,7 +3585,7 @@
         <v>1.9</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3805,28 +3606,28 @@
         <f t="array" ref="K39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1800</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3100</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O39">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O39" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3100</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q39">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q39" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>38.75</v>
       </c>
     </row>
@@ -3835,10 +3636,10 @@
         <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2021</v>
@@ -3847,7 +3648,7 @@
         <v>8.4</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3868,141 +3669,112 @@
         <f t="array" ref="K40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>500</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>950</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>500</v>
       </c>
-      <c r="O40">
-        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue(mln)]]*80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="O40" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>950</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.25</v>
       </c>
-      <c r="Q40">
-        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue(mln)]]/80,Movies[[#This Row],[revenue(mln)]])</f>
+      <c r="Q40" s="3">
+        <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>11.875</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42">
         <f>COUNT(Movies[movie_id])</f>
         <v>39</v>
       </c>
-      <c r="N42" t="s">
-        <v>164</v>
-      </c>
-      <c r="O42" t="s">
-        <v>165</v>
+      <c r="M42" t="s">
+        <v>163</v>
+      </c>
+      <c r="N42" s="5">
+        <f>SUM(Movies[Budget INR])</f>
+        <v>264196.40000000002</v>
+      </c>
+      <c r="O42" s="5">
+        <f>SUM(Movies[Revenue INR])</f>
+        <v>1567141</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43">
         <f>COUNTIF(Movies[industry],"Bollywood")</f>
         <v>18</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M43" s="3"/>
+      <c r="M43" t="s">
+        <v>164</v>
+      </c>
       <c r="N43" s="4">
-        <f>SUM(Movies[Budget INR])</f>
-        <v>264196.40000000002</v>
-      </c>
-      <c r="O43" s="5">
-        <f>SUM(Movies[[#All],[revenue INR]])</f>
-        <v>1567141</v>
+        <f>SUM(Movies[Budget USD])</f>
+        <v>3302.4549999999999</v>
+      </c>
+      <c r="O43" s="4">
+        <f>SUM(Movies[Revenue USD])</f>
+        <v>19589.262500000001</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="6">
         <f>C43/C42</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <f>SUMIF(Movies[industry],"Bollywood",Movies[Revenue INR])</f>
+        <v>80909</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="8">
-        <f>SUMIF(Movies[industry],"Bollywood",Movies[Budget INR])</f>
-        <v>18630</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6">
-        <f>SUM(Movies[[#All],[budget USD]])</f>
-        <v>3302.4549999999999</v>
-      </c>
-      <c r="O45" s="6">
-        <f>SUM(Movies[[#All],[revenue USD]])</f>
-        <v>19589.262500000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="7">
+        <f>C45/C43</f>
+        <v>4494.9444444444443</v>
+      </c>
+      <c r="D46" t="s">
         <v>170</v>
-      </c>
-      <c r="C46" s="8">
-        <f>SUMIF(Movies[industry],"Bollywood",Movies[revenue INR])</f>
-        <v>80909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="2">
-        <f>SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
-        <v>18577.900000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="2">
-        <f>AVERAGE(C47/C49)</f>
-        <v>884.66190476190479</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="2">
-        <f>COUNTIF(Movies[industry],"Hollywood")</f>
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4016,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4031,16 +3803,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4054,10 +3826,10 @@
         <v>12.5</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4071,10 +3843,10 @@
         <v>954.8</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4088,10 +3860,10 @@
         <v>644.79999999999995</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4105,10 +3877,10 @@
         <v>854</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4122,10 +3894,10 @@
         <v>670</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4139,10 +3911,10 @@
         <v>2000</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4156,10 +3928,10 @@
         <v>4000</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4173,10 +3945,10 @@
         <v>1360</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4190,10 +3962,10 @@
         <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4207,10 +3979,10 @@
         <v>73.3</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4224,10 +3996,10 @@
         <v>701.8</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4241,10 +4013,10 @@
         <v>365.3</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4258,10 +4030,10 @@
         <v>307.10000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4275,10 +4047,10 @@
         <v>460.5</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4292,10 +4064,10 @@
         <v>2202</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4309,10 +4081,10 @@
         <v>3.3</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4326,10 +4098,10 @@
         <v>2847</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4343,10 +4115,10 @@
         <v>291</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4360,10 +4132,10 @@
         <v>1006</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4377,10 +4149,10 @@
         <v>322.2</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4394,10 +4166,10 @@
         <v>1046</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4411,10 +4183,10 @@
         <v>263.10000000000002</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4428,10 +4200,10 @@
         <v>2798</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4445,10 +4217,10 @@
         <v>2048</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4462,10 +4234,10 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
         <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4479,10 +4251,10 @@
         <v>1350</v>
       </c>
       <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4496,10 +4268,10 @@
         <v>410</v>
       </c>
       <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
         <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4513,10 +4285,10 @@
         <v>8540</v>
       </c>
       <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
         <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4530,10 +4302,10 @@
         <v>5.9</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4547,10 +4319,10 @@
         <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4564,10 +4336,10 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4581,10 +4353,10 @@
         <v>6.5</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4598,10 +4370,10 @@
         <v>3409</v>
       </c>
       <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
         <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4615,10 +4387,10 @@
         <v>11690</v>
       </c>
       <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4632,10 +4404,10 @@
         <v>370.6</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4649,10 +4421,10 @@
         <v>714.4</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4666,10 +4438,10 @@
         <v>3.1</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4683,10 +4455,10 @@
         <v>950</v>
       </c>
       <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
         <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4700,10 +4472,10 @@
         <v>350</v>
       </c>
       <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
         <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4717,10 +4489,10 @@
         <v>836.8</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4732,6 +4504,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48ADEE8-B00A-4636-9EB9-1B3BB9959C16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6805207-AD4A-4BA5-928C-E78006753CCF}">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -4748,13 +4532,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4762,7 +4546,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1986</v>
@@ -4773,7 +4557,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1959</v>
@@ -4784,7 +4568,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>1976</v>
@@ -4795,7 +4579,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>1989</v>
@@ -4806,7 +4590,7 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1983</v>
@@ -4817,7 +4601,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>1981</v>
@@ -4828,7 +4612,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1981</v>
@@ -4839,7 +4623,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>1942</v>
@@ -4850,7 +4634,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>1948</v>
@@ -4861,7 +4645,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>1965</v>
@@ -4872,7 +4656,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>1974</v>
@@ -4883,7 +4667,7 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>1965</v>
@@ -4894,7 +4678,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1970</v>
@@ -4905,7 +4689,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>1979</v>
@@ -4916,7 +4700,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1974</v>
@@ -4927,7 +4711,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1985</v>
@@ -4938,7 +4722,7 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1986</v>
@@ -4949,7 +4733,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>1958</v>
@@ -4960,7 +4744,7 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>1937</v>
@@ -4971,7 +4755,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1974</v>
@@ -4982,7 +4766,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1959</v>
@@ -4993,7 +4777,7 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>1969</v>
@@ -5004,7 +4788,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>1982</v>
@@ -5015,7 +4799,7 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>1984</v>
@@ -5026,7 +4810,7 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>1986</v>
@@ -5037,7 +4821,7 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>1968</v>
@@ -5048,7 +4832,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>1972</v>
@@ -5059,7 +4843,7 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1964</v>
@@ -5070,7 +4854,7 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>1974</v>
@@ -5081,7 +4865,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1975</v>
@@ -5092,7 +4876,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1908</v>
@@ -5103,7 +4887,7 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>1921</v>
@@ -5114,7 +4898,7 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>1976</v>
@@ -5125,7 +4909,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>1978</v>
@@ -5136,7 +4920,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>1924</v>
@@ -5147,7 +4931,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>1940</v>
@@ -5158,7 +4942,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>1974</v>
@@ -5169,7 +4953,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>1979</v>
@@ -5180,7 +4964,7 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>1952</v>
@@ -5191,7 +4975,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>1943</v>
@@ -5202,7 +4986,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>1947</v>
@@ -5213,7 +4997,7 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <v>1967</v>
@@ -5224,7 +5008,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>1967</v>
@@ -5235,7 +5019,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>1975</v>
@@ -5246,7 +5030,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>1965</v>
@@ -5257,7 +5041,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>1981</v>
@@ -5268,7 +5052,7 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>1905</v>
@@ -5279,7 +5063,7 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>1919</v>
@@ -5290,7 +5074,7 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>1997</v>
@@ -5301,7 +5085,7 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>1929</v>
@@ -5312,7 +5096,7 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>1988</v>
@@ -5323,7 +5107,7 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>1982</v>
@@ -5334,7 +5118,7 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>1982</v>
@@ -5345,7 +5129,7 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <v>1982</v>
@@ -5356,7 +5140,7 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>1983</v>
@@ -5367,7 +5151,7 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C57">
         <v>1985</v>
@@ -5378,7 +5162,7 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <v>1979</v>
@@ -5389,7 +5173,7 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <v>1984</v>
@@ -5400,7 +5184,7 @@
         <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60">
         <v>1950</v>
@@ -5411,7 +5195,7 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61">
         <v>1955</v>
@@ -5422,7 +5206,7 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C62">
         <v>1965</v>
@@ -5433,7 +5217,7 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63">
         <v>1967</v>
@@ -5444,7 +5228,7 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C64">
         <v>1946</v>
@@ -5455,7 +5239,7 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65">
         <v>1982</v>
@@ -5466,7 +5250,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>1956</v>
@@ -5477,7 +5261,7 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C67">
         <v>1985</v>
@@ -5488,7 +5272,7 @@
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C68">
         <v>1991</v>
@@ -5502,7 +5286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42F180-645C-4BD4-BB22-B680DB6CAFAD}">
   <dimension ref="A1:B86"/>
   <sheetViews>
@@ -5520,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6211,7 +5995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2F15D-C7E5-45CD-9337-3706D6E911A4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -6226,10 +6010,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6237,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6245,7 +6029,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6253,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6261,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6269,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6277,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6285,7 +6069,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -6293,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6304,525 +6088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E674B2-6C74-480D-B3AB-43E6B18BBD09}">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="12">
-        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[revenue USD])</f>
-        <v>9054.6</v>
-      </c>
-      <c r="D3" s="12">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="12">
-        <f>C3-D3</f>
-        <v>1054.6000000000004</v>
-      </c>
-      <c r="F3" s="7">
-        <f>E3/C3</f>
-        <v>0.11647118591655074</v>
-      </c>
-      <c r="G3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="12">
-        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[budget])</f>
-        <v>1988.7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E7" si="0">C4-D4</f>
-        <v>-11.299999999999955</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F7" si="1">E4/C4</f>
-        <v>-5.6821038869613082E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="12">
-        <f>C3-C4</f>
-        <v>7065.9000000000005</v>
-      </c>
-      <c r="D5" s="12">
-        <v>6000</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="0"/>
-        <v>1065.9000000000005</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15085127160022085</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="7">
-        <f>C5/C4</f>
-        <v>3.5530245889274403</v>
-      </c>
-      <c r="D6" s="10">
-        <f>D5/D4</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.55302458892744033</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15564896191567959</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="7">
-        <f>C3/SUMIF(Movies[industry],"Hollywood",Movies[revenue USD])</f>
-        <v>0.48738554949698293</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>-6.2614450503017116E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>-0.12847005941731293</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="7"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>-0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673FBDD1-198C-4B20-A1F3-1C747AC006BE}">
-  <dimension ref="B4:J24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="13">
-        <f>AVERAGE(Movies[rating])</f>
-        <v>7.9473684210526319</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5">
-        <f>MEDIAN(Movies[rating])</f>
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6">
-        <f>MODE(Movies[rating])</f>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="H9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12">
-        <v>71</v>
-      </c>
-      <c r="D12">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I12">
-        <v>99</v>
-      </c>
-      <c r="J12" s="16">
-        <f>I12-Krance_Mena</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13">
-        <v>62</v>
-      </c>
-      <c r="D13">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>192</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
-      <c r="J13" s="16">
-        <f>I13-Krance_Mena</f>
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14">
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14">
-        <v>75</v>
-      </c>
-      <c r="J14" s="16">
-        <f>I14-Krance_Mena</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15">
-        <v>61</v>
-      </c>
-      <c r="D15">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15">
-        <v>84</v>
-      </c>
-      <c r="J15" s="16">
-        <f>I15-Krance_Mena</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>-8</v>
-      </c>
-      <c r="E16">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16">
-        <v>44</v>
-      </c>
-      <c r="J16" s="16">
-        <f>I16-Krance_Mena</f>
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17">
-        <v>67</v>
-      </c>
-      <c r="D17">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17">
-        <v>54</v>
-      </c>
-      <c r="J17" s="16">
-        <f>I17-Krance_Mena</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>-7</v>
-      </c>
-      <c r="E18">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18">
-        <v>98</v>
-      </c>
-      <c r="J18" s="16">
-        <f>I18-Krance_Mena</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <f>Table6[[#This Row],[Yearly Income]]-juganda_mean_income</f>
-        <v>-2</v>
-      </c>
-      <c r="E19">
-        <f>Table6[[#This Row],[Income-Avg ]]*Table6[[#This Row],[Income-Avg ]]</f>
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>199</v>
-      </c>
-      <c r="I19">
-        <v>28</v>
-      </c>
-      <c r="J19" s="16">
-        <f>I19-Krance_Mena</f>
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
-        <f>SUM(E12:E19)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21">
-        <f>AVERAGE(Table6[Yearly Income])</f>
-        <v>62</v>
-      </c>
-      <c r="H21" t="s">
-        <v>201</v>
-      </c>
-      <c r="I21" s="16">
-        <f>AVERAGE(Stats!$I$12:$I$19)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23">
-        <f>COUNT(Table6[Square])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D24" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="18">
-        <f>Table6[[#Totals],[Square]]/E23</f>
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
-    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -7051,26 +6317,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
+    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7087,4 +6362,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/movies_db_excel_Basics.xlsx
+++ b/movies_db_excel_Basics.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Business-Maths-And-Statistics-using-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD562C4-A5A1-41BF-986A-9461326BA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA93F50-7D7B-4DA7-9900-808DD2AAA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
     <sheet name="financials" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="actors" sheetId="3" r:id="rId4"/>
-    <sheet name="movie_actor" sheetId="4" r:id="rId5"/>
-    <sheet name="languages" sheetId="5" r:id="rId6"/>
+    <sheet name="actors" sheetId="3" r:id="rId3"/>
+    <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
+    <sheet name="languages" sheetId="5" r:id="rId5"/>
+    <sheet name="Marvel Finance" sheetId="6" r:id="rId6"/>
+    <sheet name="Property Prices" sheetId="9" r:id="rId7"/>
+    <sheet name="Stats" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="Mean_Juganda">Stats!$B$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>movie_id</t>
   </si>
@@ -574,18 +579,130 @@
   </si>
   <si>
     <t>mln Inr</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>Marvel Consolidated P&amp;L</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t>Profit/Loss%</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Hollywood Revnue</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target-Actuals</t>
+  </si>
+  <si>
+    <t>Target Actuals %</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Juganda Income level (In Thousands $)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yearly Income</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Mean Sq</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>Property Prices in Rajajinagar,Banglore</t>
+  </si>
+  <si>
+    <t>Sq Ft</t>
+  </si>
+  <si>
+    <t>Price INR Cr</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Height(cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Sugar </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +723,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,8 +759,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -629,44 +834,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -765,6 +1219,24 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -792,6 +1264,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AE843E39-C0BB-439B-8FFD-C1F7AAB2B83B}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF05FBD2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -801,6 +1278,1904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11800776918324006"/>
+          <c:y val="5.8528402405041126E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Property Prices'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Property Prices in Rajajinagar,Banglore</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price INR Cr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Property Prices'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Property Prices'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC24-455D-A29A-DA76571248CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1143288336"/>
+        <c:axId val="1143287856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1143288336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143287856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1143287856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143288336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4091274015048259"/>
+          <c:y val="7.2341214400303236E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Property Prices'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blood Sugar </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Property Prices'!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Property Prices'!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9151-458C-8E7B-6D841EEC3947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1143195216"/>
+        <c:axId val="1143213456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1143195216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143213456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1143213456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143195216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47898</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F459780-DD8F-2E8F-A2AD-AFE7DCCD8524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222068</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235130</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126274</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468B7FB1-A7F5-EC55-C8D5-D575DC8E1F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,22 +3201,22 @@
     <tableColumn id="16" xr3:uid="{71AF9D00-263F-48BA-A598-7B2DDE3DCFC0}" name="currency" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{107951D2-256B-4D7A-A137-40DF55661E64}" name="budget mln" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{107951D2-256B-4D7A-A137-40DF55661E64}" name="budget mln" dataDxfId="13">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{91358356-5D6E-47CB-84CF-FD41A677B750}" name="revenue mln" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{91358356-5D6E-47CB-84CF-FD41A677B750}" name="revenue mln" dataDxfId="12">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5C26D6D-0DD8-4415-81B6-865A011AF08E}" name="Budget INR" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{C5C26D6D-0DD8-4415-81B6-865A011AF08E}" name="Budget INR" dataDxfId="11">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8B0A2F78-6D6E-4355-8C95-CE7EF662C51E}" name="Revenue INR" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{8B0A2F78-6D6E-4355-8C95-CE7EF662C51E}" name="Revenue INR" dataDxfId="10">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5861D129-7E95-41E7-8E30-44B9AE058538}" name="Budget USD" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{5861D129-7E95-41E7-8E30-44B9AE058538}" name="Budget USD" dataDxfId="9">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{32DA323D-0396-47AA-A071-666A7B1324D0}" name="Revenue USD" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{32DA323D-0396-47AA-A071-666A7B1324D0}" name="Revenue USD" dataDxfId="8">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -850,7 +3225,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -864,7 +3239,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -876,7 +3251,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -887,7 +3262,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1162,7 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1275,27 +3650,27 @@
         <f t="array" ref="K2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12500</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>12500</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>156.25</v>
       </c>
@@ -1338,27 +3713,27 @@
         <f t="array" ref="K3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>200</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>954.8</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>76384</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>954.8</v>
       </c>
@@ -1401,27 +3776,27 @@
         <f t="array" ref="K4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>165</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>51584</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>644.79999999999995</v>
       </c>
@@ -1464,27 +3839,27 @@
         <f t="array" ref="K5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>180</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>854</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14400</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>68320</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>180</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>854</v>
       </c>
@@ -1527,27 +3902,27 @@
         <f t="array" ref="K6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>250</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>670</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>20000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>53600</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>670</v>
       </c>
@@ -1590,27 +3965,27 @@
         <f t="array" ref="K7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="L7" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>Not Available</v>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="N7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O7" s="3" t="str">
+      <c r="O7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
@@ -1653,27 +4028,27 @@
         <f t="array" ref="K8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>25</v>
       </c>
@@ -1716,27 +4091,27 @@
         <f t="array" ref="K9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>550</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>550</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>4000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.875</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>50</v>
       </c>
@@ -1779,27 +4154,27 @@
         <f t="array" ref="K10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>390</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1360</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>390</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>1360</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>4.875</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>17</v>
       </c>
@@ -1842,27 +4217,27 @@
         <f t="array" ref="K11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1400</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3500</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1400</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3500</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>17.5</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>43.75</v>
       </c>
@@ -1905,27 +4280,27 @@
         <f t="array" ref="K12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>25</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>73.3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>5864</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>73.3</v>
       </c>
@@ -1968,27 +4343,27 @@
         <f t="array" ref="K13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>Not Available</v>
       </c>
-      <c r="L13" s="3" t="str">
+      <c r="L13" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>Not Available</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" t="str">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>Not Available</v>
       </c>
-      <c r="N13" s="3" t="str">
+      <c r="N13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="O13" s="3" t="str">
+      <c r="O13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="P13" s="3" t="str">
+      <c r="P13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>Not Available</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" t="str">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>Not Available</v>
       </c>
@@ -2031,27 +4406,27 @@
         <f t="array" ref="K14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>165</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>701.8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>13200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>56144</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>165</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>701.8</v>
       </c>
@@ -2094,27 +4469,27 @@
         <f t="array" ref="K15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>55</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>4400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>24568</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>55</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>307.10000000000002</v>
       </c>
@@ -2157,27 +4532,27 @@
         <f t="array" ref="K16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>103</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>460.5</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>8240</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>36840</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>103</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>460.5</v>
       </c>
@@ -2220,27 +4595,27 @@
         <f t="array" ref="K17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2202</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>16000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>176160</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2202</v>
       </c>
@@ -2283,27 +4658,27 @@
         <f t="array" ref="K18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>3.18</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3.3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>254.4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>264</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.18</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>3.3</v>
       </c>
@@ -2346,27 +4721,27 @@
         <f t="array" ref="K19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>237</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2847</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>18960</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>227760</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>237</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2847</v>
       </c>
@@ -2409,27 +4784,27 @@
         <f t="array" ref="K20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>7.2</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>291</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>576</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>23280</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>7.2</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>291</v>
       </c>
@@ -2472,27 +4847,27 @@
         <f t="array" ref="K21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>185</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1006</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>80480</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>185</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1006</v>
       </c>
@@ -2535,27 +4910,27 @@
         <f t="array" ref="K22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>22</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>322.2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1760</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>25776</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>322.2</v>
       </c>
@@ -2598,27 +4973,27 @@
         <f t="array" ref="K23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>63</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1046</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5040</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>83680</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>63</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1046</v>
       </c>
@@ -2661,27 +5036,27 @@
         <f t="array" ref="K24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>15.5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1240</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>21048</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>15.5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>263.10000000000002</v>
       </c>
@@ -2724,27 +5099,27 @@
         <f t="array" ref="K25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2798</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>223840</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2798</v>
       </c>
@@ -2787,27 +5162,27 @@
         <f t="array" ref="K26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>2048</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>32000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>163840</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>2048</v>
       </c>
@@ -2850,27 +5225,27 @@
         <f t="array" ref="K27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>70</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>70</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>0.875</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>1.25</v>
       </c>
@@ -2913,27 +5288,27 @@
         <f t="array" ref="K28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>120</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>1350</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>120</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>1350</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.5</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>16.875</v>
       </c>
@@ -2976,27 +5351,27 @@
         <f t="array" ref="K29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>410</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>410</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>1.25</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>5.125</v>
       </c>
@@ -3039,27 +5414,27 @@
         <f t="array" ref="K30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>850</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>8540</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>850</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>8540</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>10.625</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>106.75</v>
       </c>
@@ -3102,27 +5477,27 @@
         <f t="array" ref="K31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1000</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>5900</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1000</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>5900</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>12.5</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>73.75</v>
       </c>
@@ -3165,27 +5540,27 @@
         <f t="array" ref="K32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>25</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>45</v>
       </c>
@@ -3228,27 +5603,27 @@
         <f t="array" ref="K33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>68.75</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>150</v>
       </c>
@@ -3291,27 +5666,27 @@
         <f t="array" ref="K34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1800</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>6500</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>6500</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>81.25</v>
       </c>
@@ -3354,27 +5729,27 @@
         <f t="array" ref="K35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>250</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3409</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>250</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3409</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>3.125</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>42.612499999999997</v>
       </c>
@@ -3417,27 +5792,27 @@
         <f t="array" ref="K36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>900</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>11690</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>900</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>11690</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>11.25</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>146.125</v>
       </c>
@@ -3480,27 +5855,27 @@
         <f t="array" ref="K37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>216.7</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>370.6</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>17336</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>29648</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>216.7</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>370.6</v>
       </c>
@@ -3543,27 +5918,27 @@
         <f t="array" ref="K38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>USD</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>177</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>714.4</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>14160</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>57152</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>177</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>714.4</v>
       </c>
@@ -3606,27 +5981,27 @@
         <f t="array" ref="K39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>1800</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>3100</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>1800</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>3100</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>22.5</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>38.75</v>
       </c>
@@ -3669,27 +6044,27 @@
         <f t="array" ref="K40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Available",0)</f>
         <v>INR</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[budget]]*1000,Movies[[#This Row],[budget]])</f>
         <v>500</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40">
         <f>IF(Movies[[#This Row],[unit]]="Billions",Movies[[#This Row],[revenue]]*1000,Movies[[#This Row],[revenue]])</f>
         <v>950</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[budget mln]]*80,Movies[[#This Row],[budget mln]])</f>
         <v>500</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <f>IF(Movies[[#This Row],[currency]]="USD",Movies[[#This Row],[revenue mln]]*80,Movies[[#This Row],[revenue mln]])</f>
         <v>950</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[budget mln]]/80,Movies[[#This Row],[budget mln]])</f>
         <v>6.25</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40">
         <f>IF(Movies[[#This Row],[currency]]="INR",Movies[[#This Row],[revenue mln]]/80,Movies[[#This Row],[revenue mln]])</f>
         <v>11.875</v>
       </c>
@@ -3705,11 +6080,11 @@
       <c r="M42" t="s">
         <v>163</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <f>SUM(Movies[Budget INR])</f>
         <v>264196.40000000002</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <f>SUM(Movies[Revenue INR])</f>
         <v>1567141</v>
       </c>
@@ -3725,11 +6100,11 @@
       <c r="M43" t="s">
         <v>164</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <f>SUM(Movies[Budget USD])</f>
         <v>3302.4549999999999</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <f>SUM(Movies[Revenue USD])</f>
         <v>19589.262500000001</v>
       </c>
@@ -3738,7 +6113,7 @@
       <c r="B44" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <f>C43/C42</f>
         <v>0.46153846153846156</v>
       </c>
@@ -3759,7 +6134,7 @@
       <c r="B46" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <f>C45/C43</f>
         <v>4494.9444444444443</v>
       </c>
@@ -3769,12 +6144,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4504,18 +6879,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48ADEE8-B00A-4636-9EB9-1B3BB9959C16}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6805207-AD4A-4BA5-928C-E78006753CCF}">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -5286,7 +7649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42F180-645C-4BD4-BB22-B680DB6CAFAD}">
   <dimension ref="A1:B86"/>
   <sheetViews>
@@ -5995,7 +8358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2F15D-C7E5-45CD-9337-3706D6E911A4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -6085,6 +8448,604 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48ADEE8-B00A-4636-9EB9-1B3BB9959C16}">
+  <dimension ref="B3:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="183" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26">
+        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[Revenue USD])</f>
+        <v>9054.6</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="29">
+        <v>8000</v>
+      </c>
+      <c r="F4" s="31">
+        <f>C4-E4</f>
+        <v>1054.6000000000004</v>
+      </c>
+      <c r="G4" s="22">
+        <f>F4/C4</f>
+        <v>0.11647118591655074</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="26">
+        <f>SUMIF(Movies[studio],"Marvel Studios",Movies[Budget USD])</f>
+        <v>1988.7</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="29">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" ref="F5:F8" si="0">C5-E5</f>
+        <v>-11.299999999999955</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G8" si="1">F5/C5</f>
+        <v>-5.6821038869613082E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="26">
+        <f>C4-C5</f>
+        <v>7065.9000000000005</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="29">
+        <v>5500</v>
+      </c>
+      <c r="F6" s="31">
+        <f t="shared" si="0"/>
+        <v>1565.9000000000005</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.22161366563353577</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C6/C5</f>
+        <v>3.5530245889274403</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22">
+        <f>E6/E5</f>
+        <v>2.75</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.80302458892744033</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.22601154842270629</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="27">
+        <f>C4/C9</f>
+        <v>0.48738554949698293</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>-6.2614450503017116E-2</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.12847005941731293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="28">
+        <f>SUMIF(Movies[industry],"Hollywood",Movies[Revenue USD])</f>
+        <v>18577.900000000001</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="19">
+        <f>AVERAGE(Movies[imdb_rating])</f>
+        <v>7.9473684210526319</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="18">
+        <f>MEDIAN(Movies[imdb_rating])</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="18">
+        <f>MODE(Movies[imdb_rating])</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="43">
+        <f>_xlfn.VAR.P(Movies[imdb_rating])</f>
+        <v>1.3577562326869845</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="19">
+        <f>_xlfn.STDEV.P(Movies[imdb_rating])</f>
+        <v>1.1652279745556164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74294DDF-C16D-42A7-AC05-811B5B484222}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="54">
+        <v>1763</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2.64</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="54">
+        <v>1914</v>
+      </c>
+      <c r="C5" s="55">
+        <v>2.98</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="54">
+        <v>1943</v>
+      </c>
+      <c r="C6" s="55">
+        <v>3.13</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="54">
+        <v>1618</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1.76</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="56">
+        <v>1369</v>
+      </c>
+      <c r="C8" s="57">
+        <v>1.99</v>
+      </c>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="51">
+        <f>CORREL(B4:B8,C4:C8)</f>
+        <v>0.86794874889966589</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>150</v>
+      </c>
+      <c r="C16" s="46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>155</v>
+      </c>
+      <c r="C17" s="46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>160</v>
+      </c>
+      <c r="C18" s="46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>165</v>
+      </c>
+      <c r="C19" s="46">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>170</v>
+      </c>
+      <c r="C20" s="46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="50">
+        <v>175</v>
+      </c>
+      <c r="C21" s="47">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="7">
+        <f>CORREL(B16:B21,C16:C21)</f>
+        <v>-0.50173125398396745</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0A1548-3A3F-416B-86D2-D6F25212DD1C}">
+  <dimension ref="A4:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="164" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="9">
+        <v>71</v>
+      </c>
+      <c r="C6" s="37">
+        <f>B6-Mean_Juganda</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="38">
+        <f>C6*C6</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="9">
+        <v>66</v>
+      </c>
+      <c r="C7" s="37">
+        <f>B7-Mean_Juganda</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7:D13" si="0">C7*C7</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="9">
+        <v>61</v>
+      </c>
+      <c r="C8" s="37">
+        <f>B8-Mean_Juganda</f>
+        <v>-1</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="9">
+        <v>62</v>
+      </c>
+      <c r="C9" s="37">
+        <f>B9-Mean_Juganda</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="9">
+        <v>54</v>
+      </c>
+      <c r="C10" s="37">
+        <f>B10-Mean_Juganda</f>
+        <v>-8</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="9">
+        <v>67</v>
+      </c>
+      <c r="C11" s="37">
+        <f>B11-Mean_Juganda</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="9">
+        <v>55</v>
+      </c>
+      <c r="C12" s="37">
+        <f>B12-Mean_Juganda</f>
+        <v>-7</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="11">
+        <v>60</v>
+      </c>
+      <c r="C13" s="39">
+        <f>B13-Mean_Juganda</f>
+        <v>-2</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="32">
+        <f>AVERAGE(B6:B13)</f>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D6:D13)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16">
+        <f>COUNT(C6:C13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="33">
+        <f>D15/D16</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="35">
+        <f>SQRT(D17)</f>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6318,15 +9279,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
@@ -6343,6 +9295,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6365,14 +9326,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6381,4 +9334,12 @@
     <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>